--- a/gant.xlsx
+++ b/gant.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>CADRAGE</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>DEPLOIEMENT</t>
-  </si>
-  <si>
-    <t>9j</t>
   </si>
   <si>
     <t>18j</t>
@@ -157,8 +154,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -198,11 +201,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,15 +543,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="8" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="5" customWidth="1"/>
     <col min="6" max="98" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -951,7 +960,7 @@
         <v>0.2</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1057,7 +1066,7 @@
         <v>0.45</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1163,7 +1172,7 @@
         <v>0.15</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
